--- a/data/processed/Portfolio_2.xlsx
+++ b/data/processed/Portfolio_2.xlsx
@@ -442,6 +442,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dates</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>SPXret_1q</t>
@@ -1991,6 +1996,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dates</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>SPXret_s</t>
@@ -2770,6 +2780,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dates</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>SPXret_a</t>
